--- a/02_MasterWifoMannheim/99_Backup/Course124.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course124.xlsx
@@ -1,115 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811591D807555A7FADA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5FF2B21-23F6-4244-8151-17BE9FF5F177}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 667 Social Impact Measurement (kein Angebot im FSS 2021!)</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>An increasing number of organizations ranging from non-profits to purpose-driven corporations apply methods to empirically capture their social impact. In this seminar, students will participate in a series of workshops on the topic of social impact measurement together with a group of social organizations from the Rhine-Neckar Region. To apply the acquired knowledge, students will help the social organizations to develop their impact logic and their impact measurement approach. Student teams will collect and analyse data to assess the impact of the social organizations empirically.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Participants will not only gain a deep understanding of how to develop a social impact logic for a social organization but will also experience the practical implementation of social impact measurement.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the CSR chair</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 SWS 10 SWS 6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>The basis for grading will be a written impact report (12 pages).</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Laura Marie Edinger-Schons</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring term kein Angebot im FSS 2021</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>All Master Programs</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,113 +420,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAN 667 Social Impact Measurement </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>An increasing number of organizations ranging from non-profits to purpose-driven corporations apply methods to empirically capture their social impact. In this seminar, students will participate in a series of workshops on the topic of social impact measurement together with a group of social organizations from the Rhine-Neckar Region. To apply the acquired knowledge, students will help the social organizations to develop their impact logic and their impact measurement approach. Student teams will collect and analyse data to assess the impact of the social organizations empirically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Participants will not only gain a deep understanding of how to develop a social impact logic for a social organization but will also experience the practical implementation of social impact measurement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the CSR chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The basis for grading will be a written impact report (12 pages).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Laura Marie Edinger-Schons</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>All Master Programs</t>
+        </is>
       </c>
     </row>
   </sheetData>
